--- a/EXTRA SİPARİŞ.xlsx
+++ b/EXTRA SİPARİŞ.xlsx
@@ -211,7 +211,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/EXTRA SİPARİŞ.xlsx
+++ b/EXTRA SİPARİŞ.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
-    <t xml:space="preserve">AK-C-A16 ALUMINUM ENCLOSURE 24(H)X80(W)X90(L) MM COLOR BLUE</t>
+    <t xml:space="preserve">AK-C-A16 ALUMINUM ENCLOSURE 24(H)X80(W)X90(L) MM</t>
   </si>
   <si>
     <t xml:space="preserve">link</t>
@@ -34,13 +34,43 @@
     <t xml:space="preserve">ALUMINYUM PROFIL KUTU, SERI URETIMDE 66(L)MM BOY SIPARIS</t>
   </si>
   <si>
+    <t xml:space="preserve">21.85</t>
+  </si>
+  <si>
     <t xml:space="preserve">RAK4200 LORA MODULE EU868MHZ</t>
   </si>
   <si>
     <t xml:space="preserve">BUNDLE SATILIYOR. MINIMUM 5 ADET ALINABILIYOR.</t>
   </si>
   <si>
-    <t xml:space="preserve">40.83 COMBINE</t>
+    <t xml:space="preserve">40.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCB FR4 1.6MM 1ozCu 59.7(W)X65.4(L) MM (2350X2575MIL) BLUE MASK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BKZ. EMAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-20MA SIGNAL GENERATOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-20MA SENSOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAK MICRO GATEWAY EU868MHZ NON-LTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BKZ. EMAIL </t>
   </si>
   <si>
     <t xml:space="preserve">RAK4200 EVALUATION BOARD EU868MHZ</t>
@@ -49,37 +79,7 @@
     <t xml:space="preserve">text</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BKZ. EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.00 COMBINE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAK MICRO GATEWAY EU868MHZ NON-LTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BKZ. EMAIL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCB FR4 1.6MM 1ozCu 59.7(W)X65.4(L) MM (2350X2575MIL) BLUE MASK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-20MA SIGNAL GENERATOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-20MA SENSOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000TL</t>
+    <t xml:space="preserve">27.00</t>
   </si>
 </sst>
 </file>
@@ -208,10 +208,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -237,10 +237,13 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -249,77 +252,72 @@
         <v>2</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -327,8 +325,8 @@
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="link"/>
     <hyperlink ref="B2" r:id="rId2" display="link"/>
-    <hyperlink ref="B3" r:id="rId3" display="text"/>
-    <hyperlink ref="B4" r:id="rId4" display="link"/>
+    <hyperlink ref="B8" r:id="rId3" display="link"/>
+    <hyperlink ref="B9" r:id="rId4" display="text"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/EXTRA SİPARİŞ.xlsx
+++ b/EXTRA SİPARİŞ.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t xml:space="preserve">AK-C-A16 ALUMINUM ENCLOSURE 24(H)X80(W)X90(L) MM</t>
   </si>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">CNC</t>
+    <t xml:space="preserve">LAZER</t>
   </si>
   <si>
     <t xml:space="preserve">RAK MICRO GATEWAY EU868MHZ NON-LTE</t>
@@ -76,10 +76,22 @@
     <t xml:space="preserve">RAK4200 EVALUATION BOARD EU868MHZ</t>
   </si>
   <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
     <t xml:space="preserve">27.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIGIKEY OK        EKOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAK4200 OK        RAKWIRELESS ORDER #2257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AK-C-A16 OK       2PCS SASA ALIBABA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCB ODENDI IZMIRNUMUNEPCB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-20MA SIGNAL GENERATOR OK ALIEXPRESS</t>
   </si>
 </sst>
 </file>
@@ -208,10 +220,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -245,9 +257,7 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="B2" s="5"/>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
@@ -294,9 +304,7 @@
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
@@ -308,9 +316,7 @@
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="B9" s="5"/>
       <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
@@ -318,15 +324,37 @@
         <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="link"/>
-    <hyperlink ref="B2" r:id="rId2" display="link"/>
-    <hyperlink ref="B8" r:id="rId3" display="link"/>
-    <hyperlink ref="B9" r:id="rId4" display="text"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/EXTRA SİPARİŞ.xlsx
+++ b/EXTRA SİPARİŞ.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t xml:space="preserve">AK-C-A16 ALUMINUM ENCLOSURE 24(H)X80(W)X90(L) MM</t>
   </si>
@@ -88,10 +88,16 @@
     <t xml:space="preserve">AK-C-A16 OK       2PCS SASA ALIBABA</t>
   </si>
   <si>
+    <t xml:space="preserve">390749215163 FEDEX</t>
+  </si>
+  <si>
     <t xml:space="preserve">PCB ODENDI IZMIRNUMUNEPCB</t>
   </si>
   <si>
     <t xml:space="preserve">4-20MA SIGNAL GENERATOR OK ALIEXPRESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR067124157YP </t>
   </si>
 </sst>
 </file>
@@ -174,7 +180,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -201,6 +207,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -223,7 +233,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -341,15 +351,21 @@
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D14" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/EXTRA SİPARİŞ.xlsx
+++ b/EXTRA SİPARİŞ.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t xml:space="preserve">AK-C-A16 ALUMINUM ENCLOSURE 24(H)X80(W)X90(L) MM</t>
   </si>
@@ -31,27 +31,18 @@
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">ALUMINYUM PROFIL KUTU, SERI URETIMDE 66(L)MM BOY SIPARIS</t>
-  </si>
-  <si>
     <t xml:space="preserve">21.85</t>
   </si>
   <si>
     <t xml:space="preserve">RAK4200 LORA MODULE EU868MHZ</t>
   </si>
   <si>
-    <t xml:space="preserve">BUNDLE SATILIYOR. MINIMUM 5 ADET ALINABILIYOR.</t>
-  </si>
-  <si>
     <t xml:space="preserve">40.83</t>
   </si>
   <si>
     <t xml:space="preserve">PCB FR4 1.6MM 1ozCu 59.7(W)X65.4(L) MM (2350X2575MIL) BLUE MASK</t>
   </si>
   <si>
-    <t xml:space="preserve">BKZ. EMAIL</t>
-  </si>
-  <si>
     <t xml:space="preserve">35.00</t>
   </si>
   <si>
@@ -70,9 +61,6 @@
     <t xml:space="preserve">RAK MICRO GATEWAY EU868MHZ NON-LTE</t>
   </si>
   <si>
-    <t xml:space="preserve">BKZ. EMAIL </t>
-  </si>
-  <si>
     <t xml:space="preserve">RAK4200 EVALUATION BOARD EU868MHZ</t>
   </si>
   <si>
@@ -82,6 +70,9 @@
     <t xml:space="preserve">DIGIKEY OK        EKOM</t>
   </si>
   <si>
+    <t xml:space="preserve">PCB ODENDI IZMIRNUMUNEPCB</t>
+  </si>
+  <si>
     <t xml:space="preserve">RAK4200 OK        RAKWIRELESS ORDER #2257</t>
   </si>
   <si>
@@ -89,9 +80,6 @@
   </si>
   <si>
     <t xml:space="preserve">390749215163 FEDEX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCB ODENDI IZMIRNUMUNEPCB</t>
   </si>
   <si>
     <t xml:space="preserve">4-20MA SIGNAL GENERATOR OK ALIEXPRESS</t>
@@ -230,10 +218,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -241,8 +229,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="65.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="63.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="8.61"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -256,116 +244,103 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/EXTRA SİPARİŞ.xlsx
+++ b/EXTRA SİPARİŞ.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t xml:space="preserve">AK-C-A16 ALUMINUM ENCLOSURE 24(H)X80(W)X90(L) MM</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t xml:space="preserve">RAK4200 OK        RAKWIRELESS ORDER #2257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8154657523 DHL</t>
   </si>
   <si>
     <t xml:space="preserve">AK-C-A16 OK       2PCS SASA ALIBABA</t>
@@ -221,7 +224,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -326,21 +329,24 @@
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="D15" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/EXTRA SİPARİŞ.xlsx
+++ b/EXTRA SİPARİŞ.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t xml:space="preserve">AK-C-A16 ALUMINUM ENCLOSURE 24(H)X80(W)X90(L) MM</t>
   </si>
@@ -31,21 +31,12 @@
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">21.85</t>
-  </si>
-  <si>
     <t xml:space="preserve">RAK4200 LORA MODULE EU868MHZ</t>
   </si>
   <si>
-    <t xml:space="preserve">40.83</t>
-  </si>
-  <si>
     <t xml:space="preserve">PCB FR4 1.6MM 1ozCu 59.7(W)X65.4(L) MM (2350X2575MIL) BLUE MASK</t>
   </si>
   <si>
-    <t xml:space="preserve">35.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">4-20MA SIGNAL GENERATOR</t>
   </si>
   <si>
@@ -62,9 +53,6 @@
   </si>
   <si>
     <t xml:space="preserve">RAK4200 EVALUATION BOARD EU868MHZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.00</t>
   </si>
   <si>
     <t xml:space="preserve">DIGIKEY OK        EKOM</t>
@@ -221,10 +209,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -248,105 +236,93 @@
         <v>2</v>
       </c>
       <c r="D1" s="3"/>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="2" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
